--- a/CorrectLink/ig/StructureDefinition-FrMedicationUcdPart.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationUcdPart.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="278">
   <si>
     <t>Property</t>
   </si>
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -325,17 +325,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Medication.implicitRules</t>
   </si>
   <si>
@@ -355,9 +348,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Medication.language</t>
   </si>
   <si>
@@ -435,6 +425,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Medication.extension</t>
   </si>
   <si>
@@ -455,16 +448,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -508,9 +491,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
     <t>Medication.code</t>
@@ -570,10 +550,23 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Medication.code.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -669,10 +662,6 @@
   </si>
   <si>
     <t>No distinct manufacturer for each part. Each part inherits the whole medication manufacturer.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>no mapping</t>
@@ -732,119 +721,120 @@
     <t>Specific amount of the drug in the packaged product.  For example, when specifying a product that has the same strength (For example, Insulin glargine 100 unit per mL solution for injection), this attribute provides additional clarification of the package amount (For example, 3 mL, 10mL, etc.).</t>
   </si>
   <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+    <t>.quantity</t>
+  </si>
+  <si>
+    <t>Medication.ingredient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Active or inactive ingredient</t>
+  </si>
+  <si>
+    <t>Identifies a particular constituent of interest in the product.</t>
+  </si>
+  <si>
+    <t>For the active ingedients, the medication contains ALL the ingredients and ONLY the ingredients.</t>
+  </si>
+  <si>
+    <t>.scopesRole[typeCode=INGR]</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.id</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.extension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept {http://interopsante.org/fhir/StructureDefinition/FrMPSubstanceActive}
+Reference(http://interopsante.org/fhir/StructureDefinition/FrMedicationUcdPart)</t>
+  </si>
+  <si>
+    <t>The actual substance or sub-part of the part</t>
+  </si>
+  <si>
+    <t>The actual substance or sub-part of the part of the branded medication.</t>
+  </si>
+  <si>
+    <t>Most of the few multi-part branded medication have a single level of parts with no sub-parts. For instance, a white tablet and a bue tablet. The item[x].refeence(FrMedicationUcdPart) is intende to describe the very few more complex multipart branded medications.</t>
+  </si>
+  <si>
+    <t>Support of french multi-part branded medication identfied by a code UDC.</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.isActive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Active ingredient indicator</t>
+  </si>
+  <si>
+    <t>Indication of whether this ingredient affects the therapeutic action of the drug.</t>
+  </si>
+  <si>
+    <t>True indicates that the ingredient affects the therapeutic action of the drug (i.e. active). +False indicates that the ingredient does not affect the therapeutic action of the drug (i.e. inactive).</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio {http://interopsante.org/fhir/StructureDefinition/FrRatioUcum}
+</t>
+  </si>
+  <si>
+    <t>A ratio of two precise Quantity values - a numerator and a denominator</t>
+  </si>
+  <si>
+    <t>Specifies how much subtance of the item[x]:codeableConcept(snomedSubstance) or how many of the item[x]:refernce(FrMedciationUcdPart) there are in this FrMedicationUcdPart</t>
+  </si>
+  <si>
+    <t>The quantity of this ingredient defining the medication. For instance, 50 mg/mL defining the glucose quantity for the glucose 5% or 500 mg medicine and 30 mg respectively defining the paracetamol and the codeine quantity for the association paracetamol+codeine 500 mg+30 mg medicine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
   </si>
   <si>
-    <t>.quantity</t>
-  </si>
-  <si>
-    <t>Medication.ingredient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Active or inactive ingredient</t>
-  </si>
-  <si>
-    <t>Identifies a particular constituent of interest in the product.</t>
-  </si>
-  <si>
-    <t>For the active ingedients, the medication contains ALL the ingredients and ONLY the ingredients.</t>
-  </si>
-  <si>
-    <t>.scopesRole[typeCode=INGR]</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.id</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.extension</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept {http://interopsante.org/fhir/StructureDefinition/FrMPSubstanceActive}
-Reference(http://interopsante.org/fhir/StructureDefinition/FrMedicationUcdPart)</t>
-  </si>
-  <si>
-    <t>The actual substance or sub-part of the part</t>
-  </si>
-  <si>
-    <t>The actual substance or sub-part of the part of the branded medication.</t>
-  </si>
-  <si>
-    <t>Most of the few multi-part branded medication have a single level of parts with no sub-parts. For instance, a white tablet and a bue tablet. The item[x].refeence(FrMedicationUcdPart) is intende to describe the very few more complex multipart branded medications.</t>
-  </si>
-  <si>
-    <t>Support of french multi-part branded medication identfied by a code UDC.</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.isActive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Active ingredient indicator</t>
-  </si>
-  <si>
-    <t>Indication of whether this ingredient affects the therapeutic action of the drug.</t>
-  </si>
-  <si>
-    <t>True indicates that the ingredient affects the therapeutic action of the drug (i.e. active). -False indicates that the ingredient does not affect the therapeutic action of the drug (i.e. inactive).</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio {http://interopsante.org/fhir/StructureDefinition/FrRatioUcum}
-</t>
-  </si>
-  <si>
-    <t>A ratio of two precise Quantity values - a numerator and a denominator</t>
-  </si>
-  <si>
-    <t>Specifies how much subtance of the item[x]:codeableConcept(snomedSubstance) or how many of the item[x]:refernce(FrMedciationUcdPart) there are in this FrMedicationUcdPart</t>
-  </si>
-  <si>
-    <t>The quantity of this ingredient defining the medication. For instance, 50 mg/mL defining the glucose quantity for the glucose 5% or 500 mg medicine and 30 mg respectively defining the paracetamol and the codeine quantity for the association paracetamol+codeine 500 mg+30 mg medicine.</t>
-  </si>
-  <si>
     <t>RTO</t>
   </si>
   <si>
@@ -880,9 +870,6 @@
   </si>
   <si>
     <t>The assigned lot number of a batch of the specified product.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>RXA-15 Substance Lot Number / RXG-19 Substance Lot Number</t>
@@ -1707,16 +1694,16 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>21</v>
@@ -1727,10 +1714,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1753,16 +1740,16 @@
         <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1812,7 +1799,7 @@
         <v>21</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
@@ -1821,16 +1808,16 @@
         <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>21</v>
@@ -1841,10 +1828,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1867,16 +1854,16 @@
         <v>21</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1902,31 +1889,31 @@
         <v>21</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -1935,16 +1922,16 @@
         <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>21</v>
@@ -1955,14 +1942,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1981,16 +1968,16 @@
         <v>21</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2040,7 +2027,7 @@
         <v>21</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
@@ -2049,16 +2036,16 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>21</v>
@@ -2069,14 +2056,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2095,16 +2082,16 @@
         <v>21</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2154,7 +2141,7 @@
         <v>21</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2172,7 +2159,7 @@
         <v>21</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>21</v>
@@ -2183,14 +2170,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2209,16 +2196,16 @@
         <v>21</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2256,19 +2243,19 @@
         <v>21</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2277,16 +2264,16 @@
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>21</v>
@@ -2297,14 +2284,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2323,19 +2310,19 @@
         <v>21</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>21</v>
@@ -2372,19 +2359,19 @@
         <v>21</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2393,16 +2380,16 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>21</v>
@@ -2413,10 +2400,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2439,16 +2426,16 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2498,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2507,30 +2494,30 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2553,16 +2540,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2588,13 +2575,13 @@
         <v>21</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>21</v>
@@ -2612,7 +2599,7 @@
         <v>21</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2621,30 +2608,30 @@
         <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2667,13 +2654,13 @@
         <v>21</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2724,7 +2711,7 @@
         <v>21</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2742,7 +2729,7 @@
         <v>21</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>21</v>
@@ -2753,14 +2740,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2779,16 +2766,16 @@
         <v>21</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2826,19 +2813,19 @@
         <v>21</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -2847,16 +2834,16 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>21</v>
@@ -2867,10 +2854,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2893,19 +2880,19 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>21</v>
@@ -2954,7 +2941,7 @@
         <v>21</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -2963,30 +2950,30 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3009,19 +2996,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>21</v>
@@ -3070,7 +3057,7 @@
         <v>21</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3079,30 +3066,30 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3125,16 +3112,16 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3160,14 +3147,14 @@
         <v>21</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>21</v>
       </c>
@@ -3184,7 +3171,7 @@
         <v>21</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3193,16 +3180,16 @@
         <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK17" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>21</v>
@@ -3213,10 +3200,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3239,16 +3226,16 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3298,7 +3285,7 @@
         <v>21</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3307,30 +3294,30 @@
         <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3353,19 +3340,19 @@
         <v>21</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>21</v>
@@ -3390,11 +3377,11 @@
         <v>21</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>21</v>
@@ -3412,7 +3399,7 @@
         <v>21</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3421,30 +3408,30 @@
         <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3467,17 +3454,15 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>21</v>
@@ -3526,7 +3511,7 @@
         <v>21</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3535,30 +3520,30 @@
         <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AK20" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3581,16 +3566,16 @@
         <v>21</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3640,7 +3625,7 @@
         <v>21</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3649,16 +3634,16 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>21</v>
@@ -3669,10 +3654,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3695,13 +3680,13 @@
         <v>21</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3752,7 +3737,7 @@
         <v>21</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -3770,7 +3755,7 @@
         <v>21</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>21</v>
@@ -3781,14 +3766,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3807,16 +3792,16 @@
         <v>21</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3854,19 +3839,19 @@
         <v>21</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -3875,16 +3860,16 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>21</v>
@@ -3895,14 +3880,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3921,19 +3906,19 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>21</v>
@@ -3982,7 +3967,7 @@
         <v>21</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -3991,16 +3976,16 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>21</v>
@@ -4011,10 +3996,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4037,19 +4022,19 @@
         <v>21</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>21</v>
@@ -4098,7 +4083,7 @@
         <v>21</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
@@ -4107,30 +4092,30 @@
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4153,17 +4138,17 @@
         <v>21</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>21</v>
@@ -4212,7 +4197,7 @@
         <v>21</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4221,16 +4206,16 @@
         <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK26" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>21</v>
@@ -4241,10 +4226,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4267,16 +4252,16 @@
         <v>21</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4326,7 +4311,7 @@
         <v>21</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4335,30 +4320,30 @@
         <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4381,16 +4366,16 @@
         <v>21</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4440,7 +4425,7 @@
         <v>21</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4449,16 +4434,16 @@
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>21</v>
@@ -4469,10 +4454,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4495,13 +4480,13 @@
         <v>21</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4552,7 +4537,7 @@
         <v>21</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4570,7 +4555,7 @@
         <v>21</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>21</v>
@@ -4581,14 +4566,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4607,16 +4592,16 @@
         <v>21</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4654,19 +4639,19 @@
         <v>21</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4675,16 +4660,16 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>21</v>
@@ -4695,14 +4680,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4721,19 +4706,19 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>21</v>
@@ -4782,7 +4767,7 @@
         <v>21</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -4791,16 +4776,16 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>21</v>
@@ -4811,10 +4796,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4837,17 +4822,15 @@
         <v>21</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>21</v>
@@ -4896,7 +4879,7 @@
         <v>21</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -4905,30 +4888,30 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4951,13 +4934,13 @@
         <v>21</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5008,7 +4991,7 @@
         <v>21</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5017,22 +5000,22 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
